--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/存货.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/存货.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,6 +1842,272 @@
         <v>297.44</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8459.48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2020.93</v>
+      </c>
+      <c r="D11" t="n">
+        <v>417.91</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5895.13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8177.76</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1044.99</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5111.17</v>
+      </c>
+      <c r="J11" t="n">
+        <v>782.01</v>
+      </c>
+      <c r="K11" t="n">
+        <v>993.23</v>
+      </c>
+      <c r="L11" t="n">
+        <v>767.61</v>
+      </c>
+      <c r="M11" t="n">
+        <v>80.34</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2416.38</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6930.65</v>
+      </c>
+      <c r="P11" t="n">
+        <v>323.28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>914.77</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3568.44</v>
+      </c>
+      <c r="S11" t="n">
+        <v>254.59</v>
+      </c>
+      <c r="T11" t="n">
+        <v>8632.459999999999</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4004.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1286.72</v>
+      </c>
+      <c r="W11" t="n">
+        <v>423.39</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2294.06</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11205.47</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1045.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5598.3</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>3550.48</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1880.49</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>151021.62</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>19387.19</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9048.120000000001</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1692.71</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3627.63</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>301.55</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5964.59</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>5148.26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>6660.96</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>320.26</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>2177.9</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>8045.95</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>381.21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9213.799999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2204.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6546.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8957.799999999999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1132</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5414.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>801.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>951.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1009.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2469.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7685</v>
+      </c>
+      <c r="P12" t="n">
+        <v>325.8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1004</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3741.6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>9401.200000000001</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4167.9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1442.1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2160.9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12915.1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1034.4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6620.3</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3600.1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1875.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>159134.4</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>20736.8</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9283.200000000001</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1805.8</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>4184.8</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5748.4</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2950.7</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>7337.9</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>376.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>2471.6</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>7602.4</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>403.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
